--- a/medicine/Handicap/Sylvain_Couthier/Sylvain_Couthier.xlsx
+++ b/medicine/Handicap/Sylvain_Couthier/Sylvain_Couthier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sylvain Couthier est le président de l’entreprise adaptée ATF Gaia. Il a reçu le 3 février 2015 le Prix de l’Entrepreneur Social 2014[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sylvain Couthier est le président de l’entreprise adaptée ATF Gaia. Il a reçu le 3 février 2015 le Prix de l’Entrepreneur Social 2014.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Vie professionnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il entre à ATF Gaia en 1996 puis il s'associe en 1998 avec Ludovic Amaudruit[2], le fondateur de l'entreprise[1]. À la mort de celui-ci en 2004, il devient l'actionnaire majoritaire d'ATF Gaia[1]. En 2005, ATF Gaia obtient le statut d'entreprise adaptée[3]. En 2008, il affirme avoir « transformé le modèle économique » de l'entreprise[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il entre à ATF Gaia en 1996 puis il s'associe en 1998 avec Ludovic Amaudruit, le fondateur de l'entreprise. À la mort de celui-ci en 2004, il devient l'actionnaire majoritaire d'ATF Gaia. En 2005, ATF Gaia obtient le statut d'entreprise adaptée. En 2008, il affirme avoir « transformé le modèle économique » de l'entreprise.
 </t>
         </is>
       </c>
